--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3932441.832808474</v>
+        <v>4035998.848600424</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7162568.327140979</v>
+        <v>7144986.043937655</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.0897904115729</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>121.910583075053</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>13.42874471570741</v>
+        <v>22.03432602025235</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>262.0858748829352</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>312.4475068981009</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>42.58798526114987</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>90.23286302327068</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>221.4325746088492</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>194.5727296124813</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>101.983998489326</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>199.7312646397516</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>30.97191586387601</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.1078928223857</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>27.31547498186517</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5078095423604</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>109.8058856274578</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>122.8327676896547</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>136.4207955213655</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2372,10 +2374,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>139.3687739767484</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>144.7250005831148</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2719,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>85.08368458989466</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>151.5133592021562</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>33.82351723687751</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>1.594095449514675</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541839</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972042</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>73.578497753872</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541835</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652574</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>270.3018801000524</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>18.93832930943146</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337068</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>126.9263824507425</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>597.0390406990318</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>597.0390406990318</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>597.0390406990318</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>597.0390406990318</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>590.0935399498284</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>174.3887896741172</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410101</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.318918149022</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y2" t="n">
-        <v>2198.17958617321</v>
+        <v>983.6388807631536</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>483.0441129489463</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>516.8349612147969</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>347.89877828689</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.608663915319</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>744.8245121128142</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>516.8349612147969</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>516.8349612147969</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2251.634947019674</v>
+        <v>1158.463096854643</v>
       </c>
       <c r="C5" t="n">
-        <v>1882.672430079263</v>
+        <v>789.5005799142318</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>789.5005799142318</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>2641.774278995486</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.634947019674</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2102.578639884742</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>499.963094824345</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C7" t="n">
-        <v>499.963094824345</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1442.718407505968</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1219.739926700703</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1219.739926700703</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>1219.739926700703</v>
       </c>
       <c r="W7" t="n">
-        <v>902.4041387981149</v>
+        <v>1219.739926700703</v>
       </c>
       <c r="X7" t="n">
-        <v>902.4041387981149</v>
+        <v>991.750375802686</v>
       </c>
       <c r="Y7" t="n">
-        <v>681.6115596545848</v>
+        <v>770.9577966591559</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1749.723851760223</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1380.761334819812</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1022.495636213061</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>636.7073836148168</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>629.7618828656133</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3018.777042416588</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2765.246565690425</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2434.183678346854</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2434.183678346854</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.183678346854</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>760.6631235951729</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W10" t="n">
-        <v>1391.09371846696</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X10" t="n">
-        <v>1163.104167568943</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="Y10" t="n">
-        <v>942.3115884254127</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="11">
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192622</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5127,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888042</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5266,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,25 +5293,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5504,49 +5506,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>917.5010142286982</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>917.5010142286982</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2269.002343845332</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T19" t="n">
-        <v>2049.400878868273</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>1099.149479058938</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.575996120531</v>
+        <v>3234.407389034261</v>
       </c>
       <c r="C22" t="n">
-        <v>920.6398131926237</v>
+        <v>3065.471206106354</v>
       </c>
       <c r="D22" t="n">
-        <v>770.5231737802879</v>
+        <v>2941.397703389531</v>
       </c>
       <c r="E22" t="n">
-        <v>622.6100801978948</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U22" t="n">
-        <v>2264.108249235165</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V22" t="n">
-        <v>2009.423761029278</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W22" t="n">
-        <v>1720.006590992318</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="X22" t="n">
-        <v>1492.0170400943</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="Y22" t="n">
-        <v>1271.22446095077</v>
+        <v>3234.407389034261</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,34 +6004,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958739</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C25" t="n">
-        <v>633.992644467967</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556313</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E25" t="n">
-        <v>483.8760050556313</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F25" t="n">
-        <v>483.8760050556313</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>316.6799057705112</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>4033.692364870552</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>3744.275194833592</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>3598.088325557718</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261136</v>
+        <v>3377.295746414188</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6248,25 +6250,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6458,28 +6460,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6537,25 +6539,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>984.9192356072721</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>815.9830526793652</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>665.8664132670294</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6682,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>119.2902967703784</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>3266.742304572424</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>3097.806121644517</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634547</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>3669.183348546194</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3448.390769402664</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7159,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7190,10 +7192,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398594</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>2978.613657539999</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.167399417937</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O39" t="n">
-        <v>1888.077129657224</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P39" t="n">
-        <v>2311.700279152293</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.965271928681</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7673,13 +7675,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,19 +7721,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
         <v>1307.627092998424</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>363.7369613277359</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>363.7369613277359</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.591198401904</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621884</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>73.66059580999706</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9650,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>136.2749052347518</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582662</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.2691783702296</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.10766347585198</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>71.22040037418684</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>25.78270532855761</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.000252501565768</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9259388694754875</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>80.98465480592239</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>61.35027805667451</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>67.07129414993855</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>112.6104454096917</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>147.0213775686977</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>75.03697526434036</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>15.88259428919173</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>206.7713260796057</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>18.49466557218874</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>624320.542908385</v>
+        <v>632639.2414098842</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>624320.542908385</v>
+        <v>632639.2414098842</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>613899.165277677</v>
+        <v>613899.1652776771</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613899.165277677</v>
+        <v>613899.1652776771</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>624320.542908385</v>
+        <v>613899.1652776771</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>624320.542908385</v>
+        <v>613899.1652776771</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>624320.542908385</v>
+        <v>613899.1652776771</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>624320.542908385</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>624320.542908385</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900058</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="K2" t="n">
-        <v>821041.7698642847</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.769864284</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642836</v>
-      </c>
       <c r="N2" t="n">
-        <v>821041.7698642834</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642849</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.368067271163454e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.2351281079</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810787</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756641</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756646</v>
+        <v>9337.200356756544</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756608</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756593</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>17328.05961985005</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985005</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985004</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985006</v>
+        <v>9337.200356756548</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985001</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-704161.1515528106</v>
+        <v>-523374.0598435834</v>
       </c>
       <c r="C6" t="n">
-        <v>624583.594174782</v>
+        <v>591377.7237323362</v>
       </c>
       <c r="D6" t="n">
-        <v>624583.594174782</v>
+        <v>431956.4537344445</v>
       </c>
       <c r="E6" t="n">
-        <v>371274.4077019877</v>
+        <v>371274.4077019868</v>
       </c>
       <c r="F6" t="n">
+        <v>696686.8695093426</v>
+      </c>
+      <c r="G6" t="n">
+        <v>696686.8695093421</v>
+      </c>
+      <c r="H6" t="n">
         <v>696686.8695093424</v>
       </c>
-      <c r="G6" t="n">
-        <v>696686.8695093427</v>
-      </c>
-      <c r="H6" t="n">
-        <v>696686.8695093427</v>
-      </c>
       <c r="I6" t="n">
+        <v>696686.8695093425</v>
+      </c>
+      <c r="J6" t="n">
+        <v>529081.6916993598</v>
+      </c>
+      <c r="K6" t="n">
+        <v>696686.8695093426</v>
+      </c>
+      <c r="L6" t="n">
+        <v>648392.8995011514</v>
+      </c>
+      <c r="M6" t="n">
+        <v>611631.8415738308</v>
+      </c>
+      <c r="N6" t="n">
         <v>696686.8695093424</v>
       </c>
-      <c r="J6" t="n">
-        <v>479155.6671120651</v>
-      </c>
-      <c r="K6" t="n">
-        <v>681121.8763968875</v>
-      </c>
-      <c r="L6" t="n">
-        <v>700549.5943905185</v>
-      </c>
-      <c r="M6" t="n">
-        <v>615494.5664550064</v>
-      </c>
-      <c r="N6" t="n">
-        <v>700549.5943905179</v>
-      </c>
       <c r="O6" t="n">
-        <v>700549.5943905194</v>
+        <v>696686.8695093426</v>
       </c>
       <c r="P6" t="n">
-        <v>696686.8695093426</v>
+        <v>696686.8695093424</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.6440512519077</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>179.1079694873524</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>273.0942536208836</v>
+        <v>264.4886723163386</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>92.59716673774778</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>69.48286317416085</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>106.0274877570625</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>104.4295973384668</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>189.4891510446043</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>9.345240527138827</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>65.26282260930184</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>18.85338871234322</v>
       </c>
     </row>
     <row r="11">
@@ -28333,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-9.998977442993383e-15</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
     </row>
     <row r="15">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647502</v>
+        <v>361.5531172119652</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460043</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>506.5665344352321</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>363.537151478685</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32561,13 +32563,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32968,7 +32970,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -33020,10 +33022,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
@@ -33032,22 +33034,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>573.8098963904295</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>514.6953762540926</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,10 +33259,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33272,13 +33274,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107744</v>
+        <v>314.3020503687023</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33497,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,13 +33514,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>354.9153144485699</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,10 +33739,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33752,10 +33754,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33977,13 +33979,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>639.8517673857149</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>346.7710205055862</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34205,10 +34207,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34217,19 +34219,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>165.3312853305614</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34374,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175677</v>
@@ -34442,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,10 +34453,10 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>373.1786946453889</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>323.3401249335294</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427319</v>
+        <v>219.4190832899469</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243176</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>364.4325005132138</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342406</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496658</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36682,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>431.6758624684112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>372.0991318096482</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663299</v>
+        <v>171.7058059242579</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37162,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>220.9409070342396</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789214</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>25.73094315394598</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,10 +37402,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>508.5100553023816</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>206.7892464195647</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
         <v>735.300110790295</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,19 +37867,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>25.34951124453992</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38022,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
         <v>735.300110790295</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,10 +38101,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M45" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4035998.848600424</v>
+        <v>4031903.207095659</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>121.910583075053</v>
+        <v>44.74477846838409</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -718,16 +718,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.03432602025235</v>
+        <v>23.94563726208596</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>312.4475068981009</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>215.7750992511835</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>33.28962109883609</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>90.23286302327068</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>221.4325746088492</v>
+        <v>208.7348846921208</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>199.7312646397516</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>129.1078928223857</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>212.4287627768751</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.90570098813</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.31547498186517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>136.5078095423604</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
-        <v>122.8327676896547</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>178.906041312462</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>144.7250005831148</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.5133592021562</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>33.82351723687751</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>1.594095449514675</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>73.578497753872</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>270.3018801000524</v>
+        <v>239.7247859410141</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422912</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>18.93832930943146</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.3722917337068</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>597.0390406990318</v>
+        <v>904.8820361188227</v>
       </c>
       <c r="C2" t="n">
-        <v>597.0390406990318</v>
+        <v>904.8820361188227</v>
       </c>
       <c r="D2" t="n">
-        <v>597.0390406990318</v>
+        <v>904.8820361188227</v>
       </c>
       <c r="E2" t="n">
-        <v>597.0390406990318</v>
+        <v>519.0937835205784</v>
       </c>
       <c r="F2" t="n">
-        <v>590.0935399498284</v>
+        <v>108.1078787309709</v>
       </c>
       <c r="G2" t="n">
-        <v>174.3887896741172</v>
+        <v>96.4435324956638</v>
       </c>
       <c r="H2" t="n">
         <v>51.2467865680031</v>
@@ -4330,13 +4330,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.012626270159</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.243971000045</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1373.778212738965</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y2" t="n">
-        <v>983.6388807631536</v>
+        <v>1291.481876182944</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>483.0441129489463</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.8349612147969</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C4" t="n">
-        <v>347.89877828689</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D4" t="n">
-        <v>347.89877828689</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G4" t="n">
         <v>199.9856847044969</v>
@@ -4488,52 +4488,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>767.0814070827661</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>744.8245121128142</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="X4" t="n">
-        <v>516.8349612147969</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y4" t="n">
-        <v>516.8349612147969</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1158.463096854643</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C5" t="n">
-        <v>789.5005799142318</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="D5" t="n">
-        <v>789.5005799142318</v>
+        <v>684.9061825519805</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>684.9061825519805</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W5" t="n">
-        <v>1545.062936918765</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X5" t="n">
-        <v>1545.062936918765</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y5" t="n">
-        <v>1545.062936918765</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2102.578639884742</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.9577966591559</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>602.021613731249</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1442.718407505968</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1219.739926700703</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1219.739926700703</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1219.739926700703</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1219.739926700703</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>991.750375802686</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>770.9577966591559</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.723851760223</v>
+        <v>2098.941407629259</v>
       </c>
       <c r="C8" t="n">
-        <v>1380.761334819812</v>
+        <v>1729.978890688848</v>
       </c>
       <c r="D8" t="n">
-        <v>1022.495636213061</v>
+        <v>1371.713192082097</v>
       </c>
       <c r="E8" t="n">
-        <v>636.7073836148168</v>
+        <v>985.9249394838528</v>
       </c>
       <c r="F8" t="n">
-        <v>629.7618828656133</v>
+        <v>574.9390346942453</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997115</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736035</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760223</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4886,7 +4886,7 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.46409084602</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.779602640133</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.362432603173</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1293.362432603173</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192622</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,10 +5533,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5545,19 +5545,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.5010142286982</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>917.5010142286982</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058938</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1099.149479058938</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>150.8995423128888</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3234.407389034261</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>3065.471206106354</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.397703389531</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807138</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.199968177791</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3455.199968177791</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3234.407389034261</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -6001,7 +6001,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3195.647281583948</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>3026.711098656041</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243706</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4288.376853076439</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V25" t="n">
-        <v>4033.692364870552</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W25" t="n">
-        <v>3744.275194833592</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X25" t="n">
-        <v>3598.088325557718</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y25" t="n">
-        <v>3377.295746414188</v>
+        <v>803.8641191832228</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6250,25 +6250,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>3966.646661122954</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.229491085994</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3677.229491085994</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>984.9192356072721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>815.9830526793652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>665.8664132670294</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6660,13 +6660,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,52 +6697,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770323</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>634.3345878491255</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072721</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3266.742304572424</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3097.806121644517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3897.172899444211</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3669.183348546194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3448.390769402664</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7159,19 +7159,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7180,13 +7180,13 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068011</v>
@@ -7201,22 +7201,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2381.235169913447</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L39" t="n">
-        <v>2381.235169913447</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M39" t="n">
-        <v>2978.613657539999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.5811134804959</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>615.644930552589</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,13 +7350,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487568</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1704.428878389244</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1704.428878389244</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.011708352283</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1187.022157454266</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>966.2295783107356</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239597</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397185</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2527.965271928681</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7596,25 +7596,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
@@ -7733,22 +7733,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>186.591198401904</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621884</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>73.66059580999706</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>19.50758019582662</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>39.70888054695294</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>62.35543909864913</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.2691783702296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>12.10766347585198</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
-        <v>25.78270532855761</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>107.2784330767821</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>80.98465480592239</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>67.07129414993855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>112.6104454096917</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>147.0213775686977</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>75.03697526434036</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>15.88259428919173</v>
+        <v>46.45968844823005</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>39.70888054695297</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>206.7713260796057</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613899.165277677</v>
+        <v>613899.1652776771</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>613899.165277677</v>
+        <v>613899.1652776771</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>613899.165277677</v>
+        <v>613899.1652776771</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900056</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="J2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073556</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.368067271163454e-10</v>
+        <v>3.803182226363169e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.9700081905</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756532</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.20035675653</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756548</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9337.200356756544</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756552</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26447,19 +26447,19 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-523374.0598435834</v>
+        <v>-523374.0598435833</v>
       </c>
       <c r="C6" t="n">
-        <v>591377.7237323362</v>
+        <v>591377.7237323364</v>
       </c>
       <c r="D6" t="n">
-        <v>431956.4537344445</v>
+        <v>431956.4537344441</v>
       </c>
       <c r="E6" t="n">
-        <v>371274.4077019868</v>
+        <v>370927.0284476301</v>
       </c>
       <c r="F6" t="n">
-        <v>696686.8695093426</v>
+        <v>696339.4902549852</v>
       </c>
       <c r="G6" t="n">
-        <v>696686.8695093421</v>
+        <v>696339.4902549852</v>
       </c>
       <c r="H6" t="n">
-        <v>696686.8695093424</v>
+        <v>696339.4902549858</v>
       </c>
       <c r="I6" t="n">
-        <v>696686.8695093425</v>
+        <v>696339.4902549854</v>
       </c>
       <c r="J6" t="n">
-        <v>529081.6916993598</v>
+        <v>528734.3124450031</v>
       </c>
       <c r="K6" t="n">
-        <v>696686.8695093426</v>
+        <v>696339.4902549855</v>
       </c>
       <c r="L6" t="n">
-        <v>648392.8995011514</v>
+        <v>648045.520246795</v>
       </c>
       <c r="M6" t="n">
-        <v>611631.8415738308</v>
+        <v>611284.4623194735</v>
       </c>
       <c r="N6" t="n">
-        <v>696686.8695093424</v>
+        <v>696339.4902549851</v>
       </c>
       <c r="O6" t="n">
-        <v>696686.8695093426</v>
+        <v>696339.4902549859</v>
       </c>
       <c r="P6" t="n">
-        <v>696686.8695093424</v>
+        <v>696339.4902549854</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,19 +26807,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>4.753977782953961e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483759</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>4.753977782953961e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>179.1079694873524</v>
+        <v>256.2737740940213</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>264.4886723163386</v>
+        <v>262.5773610745051</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>69.48286317416085</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>191.1009464905279</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>104.4295973384668</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>189.4891510446043</v>
+        <v>202.1868409613327</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.85338871234322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.040023931661327e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28335,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-9.998977442993383e-15</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>-1.3301582058034e-12</v>
       </c>
       <c r="V14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>639.4703354763091</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>232.75998908852</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,19 +32074,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M15" t="n">
-        <v>361.5531172119652</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M18" t="n">
-        <v>506.5665344352321</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,10 +32548,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4971006716333</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>289.7537444526271</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -33022,34 +33022,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>349.3304751113899</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>514.6953762540926</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33262,7 +33262,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>314.3020503687023</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>213.3000196296242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>556.532545233504</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,31 +33976,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551096</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>639.8517673857149</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34207,19 +34207,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34228,10 +34228,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.3312853305614</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34374,7 +34374,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175677</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>373.1786946453889</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>323.3401249335294</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>508.1286233929758</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M15" t="n">
-        <v>219.4190832899469</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35743,10 +35743,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132138</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>57.65947400496658</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>151.9123054782681</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370309</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>372.0991318096482</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36910,7 +36910,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>171.7058059242579</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>79.325612215294</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>37.76383318075059</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>508.5100553023816</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37876,10 +37876,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.34951124453992</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
         <v>735.300110790295</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>132.4173135558158</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4031903.207095659</v>
+        <v>4033663.737398444</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>103.1686991936197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>70.04554881124375</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>178.906041312462</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>68.17501931583776</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>198.0274703142544</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>555.5643764502971</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="20">
@@ -5889,22 +5889,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1796.747907467618</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.063419261731</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>62.35543909864913</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>75.3754992116875</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>107.2784330767821</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>72.11969353038613</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>613899.165277677</v>
+        <v>613899.1652776771</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="10">
@@ -26325,16 +26325,16 @@
         <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900056</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="G2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900062</v>
@@ -26530,40 +26530,40 @@
         <v>431956.4537344441</v>
       </c>
       <c r="E6" t="n">
-        <v>370927.0284476301</v>
+        <v>371239.6697765514</v>
       </c>
       <c r="F6" t="n">
-        <v>696339.4902549852</v>
+        <v>696652.1315839067</v>
       </c>
       <c r="G6" t="n">
-        <v>696339.4902549852</v>
+        <v>696652.1315839067</v>
       </c>
       <c r="H6" t="n">
-        <v>696339.4902549858</v>
+        <v>696652.1315839069</v>
       </c>
       <c r="I6" t="n">
-        <v>696339.4902549854</v>
+        <v>696652.1315839066</v>
       </c>
       <c r="J6" t="n">
-        <v>528734.3124450031</v>
+        <v>529046.9537739244</v>
       </c>
       <c r="K6" t="n">
-        <v>696339.4902549855</v>
+        <v>696652.1315839068</v>
       </c>
       <c r="L6" t="n">
-        <v>648045.520246795</v>
+        <v>648358.1615757163</v>
       </c>
       <c r="M6" t="n">
-        <v>611284.4623194735</v>
+        <v>611597.1036483948</v>
       </c>
       <c r="N6" t="n">
-        <v>696339.4902549851</v>
+        <v>696652.1315839064</v>
       </c>
       <c r="O6" t="n">
-        <v>696339.4902549859</v>
+        <v>696652.1315839072</v>
       </c>
       <c r="P6" t="n">
-        <v>696339.4902549854</v>
+        <v>696652.1315839067</v>
       </c>
     </row>
   </sheetData>
